--- a/Navi_Data_con_calculos.xlsx
+++ b/Navi_Data_con_calculos.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N661"/>
+  <dimension ref="A1:N611"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -31232,16 +31232,16 @@
     </row>
     <row r="552">
       <c r="A552" s="1" t="n">
-        <v>732</v>
+        <v>799</v>
       </c>
       <c r="B552" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C552" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D552" t="inlineStr">
@@ -31258,16 +31258,16 @@
         <v>1</v>
       </c>
       <c r="G552" t="n">
-        <v>12500</v>
+        <v>13500</v>
       </c>
       <c r="H552" t="n">
         <v>59921</v>
       </c>
       <c r="I552" t="n">
-        <v>0.7354902590381446</v>
+        <v>3.845502548853859</v>
       </c>
       <c r="J552" t="n">
-        <v>148.847208226665</v>
+        <v>85.96602680575538</v>
       </c>
       <c r="K552" t="b">
         <v>0</v>
@@ -31282,16 +31282,16 @@
     </row>
     <row r="553">
       <c r="A553" s="1" t="n">
-        <v>733</v>
+        <v>802</v>
       </c>
       <c r="B553" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C553" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D553" t="inlineStr">
@@ -31308,16 +31308,16 @@
         <v>1</v>
       </c>
       <c r="G553" t="n">
-        <v>12501</v>
+        <v>13601</v>
       </c>
       <c r="H553" t="n">
         <v>59921</v>
       </c>
       <c r="I553" t="n">
-        <v>2.34094899402533</v>
+        <v>1.999563923053794</v>
       </c>
       <c r="J553" t="n">
-        <v>103.6516145902277</v>
+        <v>83.27596078756812</v>
       </c>
       <c r="K553" t="b">
         <v>0</v>
@@ -31332,16 +31332,16 @@
     </row>
     <row r="554">
       <c r="A554" s="1" t="n">
-        <v>734</v>
+        <v>803</v>
       </c>
       <c r="B554" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C554" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D554" t="inlineStr">
@@ -31358,16 +31358,16 @@
         <v>1</v>
       </c>
       <c r="G554" t="n">
-        <v>12502</v>
+        <v>13602</v>
       </c>
       <c r="H554" t="n">
-        <v>21860</v>
+        <v>5594</v>
       </c>
       <c r="I554" t="n">
-        <v>1.406067329768875</v>
+        <v>0.3813685514347077</v>
       </c>
       <c r="J554" t="n">
-        <v>117.4395363559172</v>
+        <v>20.78923303625641</v>
       </c>
       <c r="K554" t="b">
         <v>1</v>
@@ -31382,16 +31382,16 @@
     </row>
     <row r="555">
       <c r="A555" s="1" t="n">
-        <v>735</v>
+        <v>804</v>
       </c>
       <c r="B555" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C555" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D555" t="inlineStr">
@@ -31408,16 +31408,16 @@
         <v>2</v>
       </c>
       <c r="G555" t="n">
-        <v>12503</v>
+        <v>13603</v>
       </c>
       <c r="H555" t="n">
-        <v>39597</v>
+        <v>6029</v>
       </c>
       <c r="I555" t="n">
-        <v>1.830572353325489</v>
+        <v>0.3731577848778431</v>
       </c>
       <c r="J555" t="n">
-        <v>80.20376462421873</v>
+        <v>23.25754285769809</v>
       </c>
       <c r="K555" t="b">
         <v>1</v>
@@ -31432,16 +31432,16 @@
     </row>
     <row r="556">
       <c r="A556" s="1" t="n">
-        <v>736</v>
+        <v>805</v>
       </c>
       <c r="B556" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C556" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D556" t="inlineStr">
@@ -31458,16 +31458,16 @@
         <v>3</v>
       </c>
       <c r="G556" t="n">
-        <v>12504</v>
+        <v>13604</v>
       </c>
       <c r="H556" t="n">
-        <v>31230</v>
+        <v>5144</v>
       </c>
       <c r="I556" t="n">
-        <v>1.450286499147011</v>
+        <v>0.3724409889391921</v>
       </c>
       <c r="J556" t="n">
-        <v>119.3893056932384</v>
+        <v>18.79469774671629</v>
       </c>
       <c r="K556" t="b">
         <v>1</v>
@@ -31482,16 +31482,16 @@
     </row>
     <row r="557">
       <c r="A557" s="1" t="n">
-        <v>737</v>
+        <v>806</v>
       </c>
       <c r="B557" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C557" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D557" t="inlineStr">
@@ -31508,16 +31508,16 @@
         <v>4</v>
       </c>
       <c r="G557" t="n">
-        <v>12505</v>
+        <v>13605</v>
       </c>
       <c r="H557" t="n">
-        <v>34904</v>
+        <v>5478</v>
       </c>
       <c r="I557" t="n">
-        <v>1.673116624861582</v>
+        <v>0.3800642867633988</v>
       </c>
       <c r="J557" t="n">
-        <v>151.9877794368795</v>
+        <v>20.30788058065022</v>
       </c>
       <c r="K557" t="b">
         <v>1</v>
@@ -31532,16 +31532,16 @@
     </row>
     <row r="558">
       <c r="A558" s="1" t="n">
-        <v>738</v>
+        <v>807</v>
       </c>
       <c r="B558" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C558" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D558" t="inlineStr">
@@ -31558,16 +31558,16 @@
         <v>1</v>
       </c>
       <c r="G558" t="n">
-        <v>12506</v>
+        <v>13606</v>
       </c>
       <c r="H558" t="n">
-        <v>37927</v>
+        <v>2371</v>
       </c>
       <c r="I558" t="n">
-        <v>1.685742833447811</v>
+        <v>0.1253837882557613</v>
       </c>
       <c r="J558" t="n">
-        <v>73.46302720253912</v>
+        <v>3.948541961449031</v>
       </c>
       <c r="K558" t="b">
         <v>1</v>
@@ -31582,16 +31582,16 @@
     </row>
     <row r="559">
       <c r="A559" s="1" t="n">
-        <v>739</v>
+        <v>808</v>
       </c>
       <c r="B559" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C559" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D559" t="inlineStr">
@@ -31608,16 +31608,16 @@
         <v>2</v>
       </c>
       <c r="G559" t="n">
-        <v>12507</v>
+        <v>13607</v>
       </c>
       <c r="H559" t="n">
-        <v>32900</v>
+        <v>2589</v>
       </c>
       <c r="I559" t="n">
-        <v>2.028698305326474</v>
+        <v>0.1360327857202584</v>
       </c>
       <c r="J559" t="n">
-        <v>99.86890728218295</v>
+        <v>4.30597802328109</v>
       </c>
       <c r="K559" t="b">
         <v>1</v>
@@ -31632,16 +31632,16 @@
     </row>
     <row r="560">
       <c r="A560" s="1" t="n">
-        <v>740</v>
+        <v>809</v>
       </c>
       <c r="B560" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C560" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D560" t="inlineStr">
@@ -31658,16 +31658,16 @@
         <v>3</v>
       </c>
       <c r="G560" t="n">
-        <v>12508</v>
+        <v>13608</v>
       </c>
       <c r="H560" t="n">
-        <v>17385</v>
+        <v>2705</v>
       </c>
       <c r="I560" t="n">
-        <v>1.126762168960223</v>
+        <v>0.1546446742900024</v>
       </c>
       <c r="J560" t="n">
-        <v>32.78510891925441</v>
+        <v>4.467863018887154</v>
       </c>
       <c r="K560" t="b">
         <v>1</v>
@@ -31682,16 +31682,16 @@
     </row>
     <row r="561">
       <c r="A561" s="1" t="n">
-        <v>741</v>
+        <v>810</v>
       </c>
       <c r="B561" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C561" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D561" t="inlineStr">
@@ -31708,16 +31708,16 @@
         <v>4</v>
       </c>
       <c r="G561" t="n">
-        <v>12509</v>
+        <v>13609</v>
       </c>
       <c r="H561" t="n">
-        <v>38711</v>
+        <v>2705</v>
       </c>
       <c r="I561" t="n">
-        <v>2.350220271874681</v>
+        <v>0.1363364336026605</v>
       </c>
       <c r="J561" t="n">
-        <v>103.5470431538475</v>
+        <v>4.509044869983274</v>
       </c>
       <c r="K561" t="b">
         <v>1</v>
@@ -31732,16 +31732,16 @@
     </row>
     <row r="562">
       <c r="A562" s="1" t="n">
-        <v>742</v>
+        <v>811</v>
       </c>
       <c r="B562" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C562" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D562" t="inlineStr">
@@ -31758,16 +31758,16 @@
         <v>5</v>
       </c>
       <c r="G562" t="n">
-        <v>12510</v>
+        <v>13610</v>
       </c>
       <c r="H562" t="n">
-        <v>39931</v>
+        <v>2705</v>
       </c>
       <c r="I562" t="n">
-        <v>2.187070201673664</v>
+        <v>0.1211914070378298</v>
       </c>
       <c r="J562" t="n">
-        <v>128.4787306359035</v>
+        <v>4.565922060317553</v>
       </c>
       <c r="K562" t="b">
         <v>1</v>
@@ -31782,16 +31782,16 @@
     </row>
     <row r="563">
       <c r="A563" s="1" t="n">
-        <v>743</v>
+        <v>812</v>
       </c>
       <c r="B563" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C563" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D563" t="inlineStr">
@@ -31808,16 +31808,16 @@
         <v>6</v>
       </c>
       <c r="G563" t="n">
-        <v>12511</v>
+        <v>13611</v>
       </c>
       <c r="H563" t="n">
-        <v>10705</v>
+        <v>2705</v>
       </c>
       <c r="I563" t="n">
-        <v>0.4848757558724695</v>
+        <v>0.16474819693812</v>
       </c>
       <c r="J563" t="n">
-        <v>15.30567198043217</v>
+        <v>4.460701867681649</v>
       </c>
       <c r="K563" t="b">
         <v>1</v>
@@ -31832,16 +31832,16 @@
     </row>
     <row r="564">
       <c r="A564" s="1" t="n">
-        <v>744</v>
+        <v>813</v>
       </c>
       <c r="B564" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C564" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D564" t="inlineStr">
@@ -31858,16 +31858,16 @@
         <v>7</v>
       </c>
       <c r="G564" t="n">
-        <v>12512</v>
+        <v>13612</v>
       </c>
       <c r="H564" t="n">
-        <v>12158</v>
+        <v>2705</v>
       </c>
       <c r="I564" t="n">
-        <v>0.1299896810132469</v>
+        <v>0.1308010748532407</v>
       </c>
       <c r="J564" t="n">
-        <v>21.71512147104982</v>
+        <v>4.542505037756644</v>
       </c>
       <c r="K564" t="b">
         <v>1</v>
@@ -31882,16 +31882,16 @@
     </row>
     <row r="565">
       <c r="A565" s="1" t="n">
-        <v>745</v>
+        <v>814</v>
       </c>
       <c r="B565" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C565" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D565" t="inlineStr">
@@ -31908,16 +31908,16 @@
         <v>1</v>
       </c>
       <c r="G565" t="n">
-        <v>12600</v>
+        <v>13700</v>
       </c>
       <c r="H565" t="n">
-        <v>86927</v>
+        <v>53993</v>
       </c>
       <c r="I565" t="n">
-        <v>0.5166995287005277</v>
+        <v>0.3992595979587623</v>
       </c>
       <c r="J565" t="n">
-        <v>376.8593263901168</v>
+        <v>232.4241539826936</v>
       </c>
       <c r="K565" t="b">
         <v>1</v>
@@ -31932,16 +31932,16 @@
     </row>
     <row r="566">
       <c r="A566" s="1" t="n">
-        <v>746</v>
+        <v>815</v>
       </c>
       <c r="B566" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C566" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D566" t="inlineStr">
@@ -31958,16 +31958,16 @@
         <v>2</v>
       </c>
       <c r="G566" t="n">
-        <v>12601</v>
+        <v>13701</v>
       </c>
       <c r="H566" t="n">
-        <v>23297</v>
+        <v>18620</v>
       </c>
       <c r="I566" t="n">
-        <v>1.430399293204521</v>
+        <v>1.127382780389013</v>
       </c>
       <c r="J566" t="n">
-        <v>74.3711968066477</v>
+        <v>54.46390054159234</v>
       </c>
       <c r="K566" t="b">
         <v>1</v>
@@ -31982,16 +31982,16 @@
     </row>
     <row r="567">
       <c r="A567" s="1" t="n">
-        <v>747</v>
+        <v>816</v>
       </c>
       <c r="B567" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C567" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D567" t="inlineStr">
@@ -32008,16 +32008,16 @@
         <v>3</v>
       </c>
       <c r="G567" t="n">
-        <v>12602</v>
+        <v>13702</v>
       </c>
       <c r="H567" t="n">
-        <v>46628</v>
+        <v>37810</v>
       </c>
       <c r="I567" t="n">
-        <v>2.558731993946094</v>
+        <v>1.960457013450423</v>
       </c>
       <c r="J567" t="n">
-        <v>181.4215577517729</v>
+        <v>171.4718204884496</v>
       </c>
       <c r="K567" t="b">
         <v>1</v>
@@ -32032,16 +32032,16 @@
     </row>
     <row r="568">
       <c r="A568" s="1" t="n">
-        <v>748</v>
+        <v>817</v>
       </c>
       <c r="B568" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C568" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D568" t="inlineStr">
@@ -32058,16 +32058,16 @@
         <v>4</v>
       </c>
       <c r="G568" t="n">
-        <v>12603</v>
+        <v>13703</v>
       </c>
       <c r="H568" t="n">
-        <v>39931</v>
+        <v>15598</v>
       </c>
       <c r="I568" t="n">
-        <v>1.728681776623896</v>
+        <v>0.8093568416853569</v>
       </c>
       <c r="J568" t="n">
-        <v>94.68836038372923</v>
+        <v>58.58324044811614</v>
       </c>
       <c r="K568" t="b">
         <v>1</v>
@@ -32082,16 +32082,16 @@
     </row>
     <row r="569">
       <c r="A569" s="1" t="n">
-        <v>749</v>
+        <v>818</v>
       </c>
       <c r="B569" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C569" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D569" t="inlineStr">
@@ -32108,16 +32108,16 @@
         <v>5</v>
       </c>
       <c r="G569" t="n">
-        <v>12604</v>
+        <v>13704</v>
       </c>
       <c r="H569" t="n">
-        <v>42503</v>
+        <v>44507</v>
       </c>
       <c r="I569" t="n">
-        <v>1.893181498351294</v>
+        <v>2.183323008674497</v>
       </c>
       <c r="J569" t="n">
-        <v>119.9154362526217</v>
+        <v>135.9640675207643</v>
       </c>
       <c r="K569" t="b">
         <v>1</v>
@@ -32132,16 +32132,16 @@
     </row>
     <row r="570">
       <c r="A570" s="1" t="n">
-        <v>750</v>
+        <v>819</v>
       </c>
       <c r="B570" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C570" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D570" t="inlineStr">
@@ -32158,16 +32158,16 @@
         <v>6</v>
       </c>
       <c r="G570" t="n">
-        <v>12605</v>
+        <v>13705</v>
       </c>
       <c r="H570" t="n">
-        <v>37142</v>
+        <v>39714</v>
       </c>
       <c r="I570" t="n">
-        <v>1.817359389533577</v>
+        <v>2.585202232934755</v>
       </c>
       <c r="J570" t="n">
-        <v>120.2161804398463</v>
+        <v>123.4201676930434</v>
       </c>
       <c r="K570" t="b">
         <v>1</v>
@@ -32182,16 +32182,16 @@
     </row>
     <row r="571">
       <c r="A571" s="1" t="n">
-        <v>751</v>
+        <v>820</v>
       </c>
       <c r="B571" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C571" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D571" t="inlineStr">
@@ -32208,16 +32208,16 @@
         <v>7</v>
       </c>
       <c r="G571" t="n">
-        <v>12606</v>
+        <v>13706</v>
       </c>
       <c r="H571" t="n">
-        <v>24315</v>
+        <v>28992</v>
       </c>
       <c r="I571" t="n">
-        <v>1.341516989048364</v>
+        <v>1.435803093387906</v>
       </c>
       <c r="J571" t="n">
-        <v>82.70841265337459</v>
+        <v>94.89562992840146</v>
       </c>
       <c r="K571" t="b">
         <v>1</v>
@@ -32232,16 +32232,16 @@
     </row>
     <row r="572">
       <c r="A572" s="1" t="n">
-        <v>752</v>
+        <v>821</v>
       </c>
       <c r="B572" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C572" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D572" t="inlineStr">
@@ -32258,16 +32258,16 @@
         <v>1</v>
       </c>
       <c r="G572" t="n">
-        <v>12700</v>
+        <v>13800</v>
       </c>
       <c r="H572" t="n">
-        <v>57466</v>
+        <v>6146</v>
       </c>
       <c r="I572" t="n">
-        <v>1.414117140785462</v>
+        <v>0.2522900569802891</v>
       </c>
       <c r="J572" t="n">
-        <v>126.8764154683154</v>
+        <v>19.48793316913117</v>
       </c>
       <c r="K572" t="b">
         <v>1</v>
@@ -32282,16 +32282,16 @@
     </row>
     <row r="573">
       <c r="A573" s="1" t="n">
-        <v>753</v>
+        <v>822</v>
       </c>
       <c r="B573" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C573" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D573" t="inlineStr">
@@ -32308,16 +32308,16 @@
         <v>2</v>
       </c>
       <c r="G573" t="n">
-        <v>12701</v>
+        <v>13801</v>
       </c>
       <c r="H573" t="n">
-        <v>22295</v>
+        <v>46527</v>
       </c>
       <c r="I573" t="n">
-        <v>0.9651915586726741</v>
+        <v>2.115088940308388</v>
       </c>
       <c r="J573" t="n">
-        <v>36.97339519730571</v>
+        <v>100.1963255600654</v>
       </c>
       <c r="K573" t="b">
         <v>1</v>
@@ -32332,16 +32332,16 @@
     </row>
     <row r="574">
       <c r="A574" s="1" t="n">
-        <v>754</v>
+        <v>823</v>
       </c>
       <c r="B574" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C574" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D574" t="inlineStr">
@@ -32358,16 +32358,16 @@
         <v>3</v>
       </c>
       <c r="G574" t="n">
-        <v>12702</v>
+        <v>13802</v>
       </c>
       <c r="H574" t="n">
-        <v>68172</v>
+        <v>7482</v>
       </c>
       <c r="I574" t="n">
-        <v>3.306021462791599</v>
+        <v>0.2711864624064343</v>
       </c>
       <c r="J574" t="n">
-        <v>137.9097323621519</v>
+        <v>20.49526826838048</v>
       </c>
       <c r="K574" t="b">
         <v>1</v>
@@ -32382,16 +32382,16 @@
     </row>
     <row r="575">
       <c r="A575" s="1" t="n">
-        <v>755</v>
+        <v>824</v>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C575" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D575" t="inlineStr">
@@ -32408,16 +32408,16 @@
         <v>4</v>
       </c>
       <c r="G575" t="n">
-        <v>12703</v>
+        <v>13803</v>
       </c>
       <c r="H575" t="n">
-        <v>62928</v>
+        <v>22078</v>
       </c>
       <c r="I575" t="n">
-        <v>2.550193312420379</v>
+        <v>0.7320188762442132</v>
       </c>
       <c r="J575" t="n">
-        <v>119.6502669603859</v>
+        <v>41.0882005131011</v>
       </c>
       <c r="K575" t="b">
         <v>1</v>
@@ -32432,16 +32432,16 @@
     </row>
     <row r="576">
       <c r="A576" s="1" t="n">
-        <v>756</v>
+        <v>825</v>
       </c>
       <c r="B576" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C576" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D576" t="inlineStr">
@@ -32458,16 +32458,16 @@
         <v>5</v>
       </c>
       <c r="G576" t="n">
-        <v>12704</v>
+        <v>13804</v>
       </c>
       <c r="H576" t="n">
-        <v>61692</v>
+        <v>32232</v>
       </c>
       <c r="I576" t="n">
-        <v>2.181585516653674</v>
+        <v>1.284016568336362</v>
       </c>
       <c r="J576" t="n">
-        <v>67.57269953581368</v>
+        <v>84.86419213019173</v>
       </c>
       <c r="K576" t="b">
         <v>1</v>
@@ -32482,16 +32482,16 @@
     </row>
     <row r="577">
       <c r="A577" s="1" t="n">
-        <v>757</v>
+        <v>826</v>
       </c>
       <c r="B577" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C577" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D577" t="inlineStr">
@@ -32508,16 +32508,16 @@
         <v>6</v>
       </c>
       <c r="G577" t="n">
-        <v>12705</v>
+        <v>13805</v>
       </c>
       <c r="H577" t="n">
-        <v>32014</v>
+        <v>13260</v>
       </c>
       <c r="I577" t="n">
-        <v>0.4046539911502392</v>
+        <v>0.2779392117830177</v>
       </c>
       <c r="J577" t="n">
-        <v>91.18117676483462</v>
+        <v>21.68074914555816</v>
       </c>
       <c r="K577" t="b">
         <v>1</v>
@@ -32532,16 +32532,16 @@
     </row>
     <row r="578">
       <c r="A578" s="1" t="n">
-        <v>758</v>
+        <v>827</v>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C578" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D578" t="inlineStr">
@@ -32558,16 +32558,16 @@
         <v>7</v>
       </c>
       <c r="G578" t="n">
-        <v>12706</v>
+        <v>13806</v>
       </c>
       <c r="H578" t="n">
-        <v>16833</v>
+        <v>13928</v>
       </c>
       <c r="I578" t="n">
-        <v>0.3349304347170315</v>
+        <v>0.5162751805958627</v>
       </c>
       <c r="J578" t="n">
-        <v>54.79326956450537</v>
+        <v>19.11953477244941</v>
       </c>
       <c r="K578" t="b">
         <v>1</v>
@@ -32582,16 +32582,16 @@
     </row>
     <row r="579">
       <c r="A579" s="1" t="n">
-        <v>759</v>
+        <v>828</v>
       </c>
       <c r="B579" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C579" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D579" t="inlineStr">
@@ -32608,16 +32608,16 @@
         <v>1</v>
       </c>
       <c r="G579" t="n">
-        <v>12800</v>
+        <v>13900</v>
       </c>
       <c r="H579" t="n">
-        <v>32566</v>
+        <v>7264</v>
       </c>
       <c r="I579" t="n">
-        <v>0.3299773984326439</v>
+        <v>0.2299865730725012</v>
       </c>
       <c r="J579" t="n">
-        <v>116.0201280527496</v>
+        <v>15.79957226704235</v>
       </c>
       <c r="K579" t="b">
         <v>1</v>
@@ -32632,16 +32632,16 @@
     </row>
     <row r="580">
       <c r="A580" s="1" t="n">
-        <v>760</v>
+        <v>829</v>
       </c>
       <c r="B580" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C580" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D580" t="inlineStr">
@@ -32658,16 +32658,16 @@
         <v>2</v>
       </c>
       <c r="G580" t="n">
-        <v>12801</v>
+        <v>13901</v>
       </c>
       <c r="H580" t="n">
-        <v>25869</v>
+        <v>6262</v>
       </c>
       <c r="I580" t="n">
-        <v>0.6981711965774232</v>
+        <v>0.1845696186837622</v>
       </c>
       <c r="J580" t="n">
-        <v>85.7485025266149</v>
+        <v>12.86367769426914</v>
       </c>
       <c r="K580" t="b">
         <v>1</v>
@@ -32682,16 +32682,16 @@
     </row>
     <row r="581">
       <c r="A581" s="1" t="n">
-        <v>761</v>
+        <v>830</v>
       </c>
       <c r="B581" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C581" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D581" t="inlineStr">
@@ -32708,16 +32708,16 @@
         <v>3</v>
       </c>
       <c r="G581" t="n">
-        <v>12802</v>
+        <v>13902</v>
       </c>
       <c r="H581" t="n">
-        <v>10037</v>
+        <v>8266</v>
       </c>
       <c r="I581" t="n">
-        <v>0.3077057491815665</v>
+        <v>0.4222754239941218</v>
       </c>
       <c r="J581" t="n">
-        <v>25.50334845921686</v>
+        <v>35.29043631129526</v>
       </c>
       <c r="K581" t="b">
         <v>1</v>
@@ -32732,16 +32732,16 @@
     </row>
     <row r="582">
       <c r="A582" s="1" t="n">
-        <v>762</v>
+        <v>831</v>
       </c>
       <c r="B582" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C582" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D582" t="inlineStr">
@@ -32758,16 +32758,16 @@
         <v>1</v>
       </c>
       <c r="G582" t="n">
-        <v>12900</v>
+        <v>14000</v>
       </c>
       <c r="H582" t="n">
         <v>44989</v>
       </c>
       <c r="I582" t="n">
-        <v>0.3704005971138753</v>
+        <v>1.91019802891864</v>
       </c>
       <c r="J582" t="n">
-        <v>94.37983067392301</v>
+        <v>145.7682148175048</v>
       </c>
       <c r="K582" t="b">
         <v>0</v>
@@ -32782,16 +32782,16 @@
     </row>
     <row r="583">
       <c r="A583" s="1" t="n">
-        <v>765</v>
+        <v>833</v>
       </c>
       <c r="B583" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C583" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D583" t="inlineStr">
@@ -32801,26 +32801,26 @@
       </c>
       <c r="E583" t="inlineStr">
         <is>
-          <t>VisibleTarget_1</t>
+          <t>Training</t>
         </is>
       </c>
       <c r="F583" t="n">
         <v>1</v>
       </c>
       <c r="G583" t="n">
-        <v>13002</v>
+        <v>14101</v>
       </c>
       <c r="H583" t="n">
-        <v>59980</v>
+        <v>41767</v>
       </c>
       <c r="I583" t="n">
-        <v>0.238484404181665</v>
+        <v>1.554398961503478</v>
       </c>
       <c r="J583" t="n">
-        <v>261.2255094288453</v>
+        <v>104.5406898400202</v>
       </c>
       <c r="K583" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L583" t="inlineStr"/>
       <c r="M583" t="inlineStr">
@@ -32832,16 +32832,16 @@
     </row>
     <row r="584">
       <c r="A584" s="1" t="n">
-        <v>767</v>
+        <v>834</v>
       </c>
       <c r="B584" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C584" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D584" t="inlineStr">
@@ -32851,26 +32851,26 @@
       </c>
       <c r="E584" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>VisibleTarget_1</t>
         </is>
       </c>
       <c r="F584" t="n">
         <v>1</v>
       </c>
       <c r="G584" t="n">
-        <v>13101</v>
+        <v>14102</v>
       </c>
       <c r="H584" t="n">
-        <v>222</v>
+        <v>19778</v>
       </c>
       <c r="I584" t="n">
-        <v>0.002044666334308163</v>
+        <v>0.3923200023878101</v>
       </c>
       <c r="J584" t="n">
-        <v>0.5318274628266451</v>
+        <v>84.78395767295562</v>
       </c>
       <c r="K584" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L584" t="inlineStr"/>
       <c r="M584" t="inlineStr">
@@ -32882,16 +32882,16 @@
     </row>
     <row r="585">
       <c r="A585" s="1" t="n">
-        <v>772</v>
+        <v>835</v>
       </c>
       <c r="B585" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C585" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D585" t="inlineStr">
@@ -32908,16 +32908,16 @@
         <v>2</v>
       </c>
       <c r="G585" t="n">
-        <v>13203</v>
+        <v>14103</v>
       </c>
       <c r="H585" t="n">
-        <v>23777</v>
+        <v>8889</v>
       </c>
       <c r="I585" t="n">
-        <v>0.3963584624297559</v>
+        <v>0.4145138088268273</v>
       </c>
       <c r="J585" t="n">
-        <v>101.223533366787</v>
+        <v>36.06243067470569</v>
       </c>
       <c r="K585" t="b">
         <v>1</v>
@@ -32932,16 +32932,16 @@
     </row>
     <row r="586">
       <c r="A586" s="1" t="n">
-        <v>773</v>
+        <v>836</v>
       </c>
       <c r="B586" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C586" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D586" t="inlineStr">
@@ -32958,16 +32958,16 @@
         <v>3</v>
       </c>
       <c r="G586" t="n">
-        <v>13204</v>
+        <v>14104</v>
       </c>
       <c r="H586" t="n">
-        <v>6111</v>
+        <v>7000</v>
       </c>
       <c r="I586" t="n">
-        <v>0.4232754565760734</v>
+        <v>0.3847884471719615</v>
       </c>
       <c r="J586" t="n">
-        <v>23.45449169988782</v>
+        <v>27.56885770676792</v>
       </c>
       <c r="K586" t="b">
         <v>1</v>
@@ -32982,16 +32982,16 @@
     </row>
     <row r="587">
       <c r="A587" s="1" t="n">
-        <v>774</v>
+        <v>837</v>
       </c>
       <c r="B587" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C587" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D587" t="inlineStr">
@@ -33008,16 +33008,16 @@
         <v>4</v>
       </c>
       <c r="G587" t="n">
-        <v>13205</v>
+        <v>14105</v>
       </c>
       <c r="H587" t="n">
-        <v>5889</v>
+        <v>5444</v>
       </c>
       <c r="I587" t="n">
-        <v>0.3945166355810033</v>
+        <v>0.387402267629877</v>
       </c>
       <c r="J587" t="n">
-        <v>22.46798669206829</v>
+        <v>20.02928745187216</v>
       </c>
       <c r="K587" t="b">
         <v>1</v>
@@ -33032,16 +33032,16 @@
     </row>
     <row r="588">
       <c r="A588" s="1" t="n">
-        <v>775</v>
+        <v>838</v>
       </c>
       <c r="B588" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C588" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D588" t="inlineStr">
@@ -33058,16 +33058,16 @@
         <v>1</v>
       </c>
       <c r="G588" t="n">
-        <v>13206</v>
+        <v>14106</v>
       </c>
       <c r="H588" t="n">
-        <v>60980</v>
+        <v>43211</v>
       </c>
       <c r="I588" t="n">
-        <v>2.387166654126987</v>
+        <v>3.298999584929402</v>
       </c>
       <c r="J588" t="n">
-        <v>298.8845888583348</v>
+        <v>163.770291454907</v>
       </c>
       <c r="K588" t="b">
         <v>1</v>
@@ -33082,16 +33082,16 @@
     </row>
     <row r="589">
       <c r="A589" s="1" t="n">
-        <v>776</v>
+        <v>839</v>
       </c>
       <c r="B589" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C589" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D589" t="inlineStr">
@@ -33108,16 +33108,16 @@
         <v>2</v>
       </c>
       <c r="G589" t="n">
-        <v>13207</v>
+        <v>14107</v>
       </c>
       <c r="H589" t="n">
-        <v>41767</v>
+        <v>42767</v>
       </c>
       <c r="I589" t="n">
-        <v>1.263746662622417</v>
+        <v>2.698848654720605</v>
       </c>
       <c r="J589" t="n">
-        <v>161.1001716862747</v>
+        <v>166.9420511001117</v>
       </c>
       <c r="K589" t="b">
         <v>1</v>
@@ -33132,16 +33132,16 @@
     </row>
     <row r="590">
       <c r="A590" s="1" t="n">
-        <v>777</v>
+        <v>840</v>
       </c>
       <c r="B590" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C590" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D590" t="inlineStr">
@@ -33158,16 +33158,16 @@
         <v>3</v>
       </c>
       <c r="G590" t="n">
-        <v>13208</v>
+        <v>14108</v>
       </c>
       <c r="H590" t="n">
-        <v>48878</v>
+        <v>9445</v>
       </c>
       <c r="I590" t="n">
-        <v>1.325411154171863</v>
+        <v>0.4438206810098095</v>
       </c>
       <c r="J590" t="n">
-        <v>139.2569304754344</v>
+        <v>37.41313637022479</v>
       </c>
       <c r="K590" t="b">
         <v>1</v>
@@ -33182,16 +33182,16 @@
     </row>
     <row r="591">
       <c r="A591" s="1" t="n">
-        <v>778</v>
+        <v>841</v>
       </c>
       <c r="B591" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C591" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D591" t="inlineStr">
@@ -33208,16 +33208,16 @@
         <v>4</v>
       </c>
       <c r="G591" t="n">
-        <v>13209</v>
+        <v>14109</v>
       </c>
       <c r="H591" t="n">
-        <v>51434</v>
+        <v>8444</v>
       </c>
       <c r="I591" t="n">
-        <v>1.971095771946396</v>
+        <v>0.3952917812118527</v>
       </c>
       <c r="J591" t="n">
-        <v>229.2036700457955</v>
+        <v>34.4927555833008</v>
       </c>
       <c r="K591" t="b">
         <v>1</v>
@@ -33232,16 +33232,16 @@
     </row>
     <row r="592">
       <c r="A592" s="1" t="n">
-        <v>789</v>
+        <v>842</v>
       </c>
       <c r="B592" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C592" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D592" t="inlineStr">
@@ -33258,16 +33258,16 @@
         <v>5</v>
       </c>
       <c r="G592" t="n">
-        <v>13310</v>
+        <v>14110</v>
       </c>
       <c r="H592" t="n">
-        <v>35999</v>
+        <v>9333</v>
       </c>
       <c r="I592" t="n">
-        <v>0.7167819880780266</v>
+        <v>0.4163082731031905</v>
       </c>
       <c r="J592" t="n">
-        <v>156.5795046868043</v>
+        <v>38.19698970667186</v>
       </c>
       <c r="K592" t="b">
         <v>1</v>
@@ -33282,16 +33282,16 @@
     </row>
     <row r="593">
       <c r="A593" s="1" t="n">
-        <v>790</v>
+        <v>843</v>
       </c>
       <c r="B593" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C593" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D593" t="inlineStr">
@@ -33308,16 +33308,16 @@
         <v>6</v>
       </c>
       <c r="G593" t="n">
-        <v>13311</v>
+        <v>14111</v>
       </c>
       <c r="H593" t="n">
-        <v>39666</v>
+        <v>18222</v>
       </c>
       <c r="I593" t="n">
-        <v>1.611003191070785</v>
+        <v>1.103842858271582</v>
       </c>
       <c r="J593" t="n">
-        <v>180.6209008543423</v>
+        <v>69.34387621523659</v>
       </c>
       <c r="K593" t="b">
         <v>1</v>
@@ -33332,16 +33332,16 @@
     </row>
     <row r="594">
       <c r="A594" s="1" t="n">
-        <v>791</v>
+        <v>844</v>
       </c>
       <c r="B594" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C594" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D594" t="inlineStr">
@@ -33358,16 +33358,16 @@
         <v>7</v>
       </c>
       <c r="G594" t="n">
-        <v>13312</v>
+        <v>14112</v>
       </c>
       <c r="H594" t="n">
-        <v>51879</v>
+        <v>8889</v>
       </c>
       <c r="I594" t="n">
-        <v>2.428001844828755</v>
+        <v>0.423404872255096</v>
       </c>
       <c r="J594" t="n">
-        <v>237.484886532143</v>
+        <v>36.0396710486854</v>
       </c>
       <c r="K594" t="b">
         <v>1</v>
@@ -33382,16 +33382,16 @@
     </row>
     <row r="595">
       <c r="A595" s="1" t="n">
-        <v>792</v>
+        <v>845</v>
       </c>
       <c r="B595" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C595" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D595" t="inlineStr">
@@ -33408,16 +33408,16 @@
         <v>1</v>
       </c>
       <c r="G595" t="n">
-        <v>13400</v>
+        <v>14200</v>
       </c>
       <c r="H595" t="n">
-        <v>83297</v>
+        <v>38000</v>
       </c>
       <c r="I595" t="n">
-        <v>0.5396701782090763</v>
+        <v>0.5178503578171607</v>
       </c>
       <c r="J595" t="n">
-        <v>355.8782838137474</v>
+        <v>157.7556536230171</v>
       </c>
       <c r="K595" t="b">
         <v>1</v>
@@ -33432,16 +33432,16 @@
     </row>
     <row r="596">
       <c r="A596" s="1" t="n">
-        <v>793</v>
+        <v>847</v>
       </c>
       <c r="B596" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C596" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D596" t="inlineStr">
@@ -33458,16 +33458,16 @@
         <v>2</v>
       </c>
       <c r="G596" t="n">
-        <v>13401</v>
+        <v>14301</v>
       </c>
       <c r="H596" t="n">
-        <v>60202</v>
+        <v>43100</v>
       </c>
       <c r="I596" t="n">
-        <v>1.115833773128653</v>
+        <v>2.333556897237658</v>
       </c>
       <c r="J596" t="n">
-        <v>266.2733180426576</v>
+        <v>100.1814571431603</v>
       </c>
       <c r="K596" t="b">
         <v>1</v>
@@ -33482,16 +33482,16 @@
     </row>
     <row r="597">
       <c r="A597" s="1" t="n">
-        <v>794</v>
+        <v>848</v>
       </c>
       <c r="B597" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C597" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D597" t="inlineStr">
@@ -33508,16 +33508,16 @@
         <v>3</v>
       </c>
       <c r="G597" t="n">
-        <v>13402</v>
+        <v>14302</v>
       </c>
       <c r="H597" t="n">
-        <v>76743</v>
+        <v>40222</v>
       </c>
       <c r="I597" t="n">
-        <v>1.575285962144112</v>
+        <v>2.160660635724889</v>
       </c>
       <c r="J597" t="n">
-        <v>398.129054711416</v>
+        <v>133.015502445892</v>
       </c>
       <c r="K597" t="b">
         <v>1</v>
@@ -33532,16 +33532,16 @@
     </row>
     <row r="598">
       <c r="A598" s="1" t="n">
-        <v>795</v>
+        <v>849</v>
       </c>
       <c r="B598" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C598" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D598" t="inlineStr">
@@ -33558,16 +33558,16 @@
         <v>4</v>
       </c>
       <c r="G598" t="n">
-        <v>13403</v>
+        <v>14303</v>
       </c>
       <c r="H598" t="n">
-        <v>15000</v>
+        <v>7333</v>
       </c>
       <c r="I598" t="n">
-        <v>0.4590257768429771</v>
+        <v>0.4469583355938544</v>
       </c>
       <c r="J598" t="n">
-        <v>48.33187000883806</v>
+        <v>26.34914126073685</v>
       </c>
       <c r="K598" t="b">
         <v>1</v>
@@ -33582,16 +33582,16 @@
     </row>
     <row r="599">
       <c r="A599" s="1" t="n">
-        <v>796</v>
+        <v>850</v>
       </c>
       <c r="B599" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C599" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D599" t="inlineStr">
@@ -33608,16 +33608,16 @@
         <v>5</v>
       </c>
       <c r="G599" t="n">
-        <v>13404</v>
+        <v>14304</v>
       </c>
       <c r="H599" t="n">
-        <v>13778</v>
+        <v>7333</v>
       </c>
       <c r="I599" t="n">
-        <v>0.4185238089673538</v>
+        <v>0.484973865004185</v>
       </c>
       <c r="J599" t="n">
-        <v>54.65588935689757</v>
+        <v>29.40358449490406</v>
       </c>
       <c r="K599" t="b">
         <v>1</v>
@@ -33632,16 +33632,16 @@
     </row>
     <row r="600">
       <c r="A600" s="1" t="n">
-        <v>797</v>
+        <v>851</v>
       </c>
       <c r="B600" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C600" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D600" t="inlineStr">
@@ -33658,16 +33658,16 @@
         <v>6</v>
       </c>
       <c r="G600" t="n">
-        <v>13405</v>
+        <v>14305</v>
       </c>
       <c r="H600" t="n">
-        <v>18667</v>
+        <v>7778</v>
       </c>
       <c r="I600" t="n">
-        <v>0.5001067009280263</v>
+        <v>0.5263427719702352</v>
       </c>
       <c r="J600" t="n">
-        <v>76.2041374686365</v>
+        <v>31.20087342698108</v>
       </c>
       <c r="K600" t="b">
         <v>1</v>
@@ -33682,16 +33682,16 @@
     </row>
     <row r="601">
       <c r="A601" s="1" t="n">
-        <v>798</v>
+        <v>852</v>
       </c>
       <c r="B601" t="inlineStr">
         <is>
-          <t>P13</t>
+          <t>P14</t>
         </is>
       </c>
       <c r="C601" t="inlineStr">
         <is>
-          <t>Voluntario Sano</t>
+          <t>Vestibular</t>
         </is>
       </c>
       <c r="D601" t="inlineStr">
@@ -33708,16 +33708,16 @@
         <v>7</v>
       </c>
       <c r="G601" t="n">
-        <v>13406</v>
+        <v>14306</v>
       </c>
       <c r="H601" t="n">
-        <v>27666</v>
+        <v>6778</v>
       </c>
       <c r="I601" t="n">
-        <v>0.6402645323322006</v>
+        <v>0.427126889479068</v>
       </c>
       <c r="J601" t="n">
-        <v>106.9973300420872</v>
+        <v>26.57205581068154</v>
       </c>
       <c r="K601" t="b">
         <v>1</v>
@@ -33732,7 +33732,7 @@
     </row>
     <row r="602">
       <c r="A602" s="1" t="n">
-        <v>799</v>
+        <v>853</v>
       </c>
       <c r="B602" t="inlineStr">
         <is>
@@ -33746,31 +33746,31 @@
       </c>
       <c r="D602" t="inlineStr">
         <is>
-          <t>No Inmersivo</t>
+          <t>Realidad Virtual</t>
         </is>
       </c>
       <c r="E602" t="inlineStr">
         <is>
-          <t>FreeNav</t>
+          <t>HiddenTarget_3</t>
         </is>
       </c>
       <c r="F602" t="n">
         <v>1</v>
       </c>
       <c r="G602" t="n">
-        <v>13500</v>
+        <v>14400</v>
       </c>
       <c r="H602" t="n">
-        <v>59921</v>
+        <v>51879</v>
       </c>
       <c r="I602" t="n">
-        <v>3.845502548853859</v>
+        <v>3.293817469803835</v>
       </c>
       <c r="J602" t="n">
-        <v>85.96602680575538</v>
+        <v>157.6156978126522</v>
       </c>
       <c r="K602" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L602" t="inlineStr"/>
       <c r="M602" t="inlineStr">
@@ -33782,7 +33782,7 @@
     </row>
     <row r="603">
       <c r="A603" s="1" t="n">
-        <v>802</v>
+        <v>857</v>
       </c>
       <c r="B603" t="inlineStr">
         <is>
@@ -33796,31 +33796,31 @@
       </c>
       <c r="D603" t="inlineStr">
         <is>
-          <t>No Inmersivo</t>
+          <t>Realidad Virtual</t>
         </is>
       </c>
       <c r="E603" t="inlineStr">
         <is>
-          <t>Training</t>
+          <t>HiddenTarget_3</t>
         </is>
       </c>
       <c r="F603" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G603" t="n">
-        <v>13601</v>
+        <v>14701</v>
       </c>
       <c r="H603" t="n">
-        <v>59921</v>
+        <v>19333</v>
       </c>
       <c r="I603" t="n">
-        <v>1.999563923053794</v>
+        <v>0.3737257643755911</v>
       </c>
       <c r="J603" t="n">
-        <v>83.27596078756812</v>
+        <v>71.3939519013264</v>
       </c>
       <c r="K603" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L603" t="inlineStr"/>
       <c r="M603" t="inlineStr">
@@ -33832,7 +33832,7 @@
     </row>
     <row r="604">
       <c r="A604" s="1" t="n">
-        <v>803</v>
+        <v>858</v>
       </c>
       <c r="B604" t="inlineStr">
         <is>
@@ -33846,28 +33846,28 @@
       </c>
       <c r="D604" t="inlineStr">
         <is>
-          <t>No Inmersivo</t>
+          <t>Realidad Virtual</t>
         </is>
       </c>
       <c r="E604" t="inlineStr">
         <is>
-          <t>VisibleTarget_1</t>
+          <t>HiddenTarget_3</t>
         </is>
       </c>
       <c r="F604" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="G604" t="n">
-        <v>13602</v>
+        <v>14702</v>
       </c>
       <c r="H604" t="n">
-        <v>5594</v>
+        <v>7444</v>
       </c>
       <c r="I604" t="n">
-        <v>0.3813685514347077</v>
+        <v>0.3636702419741078</v>
       </c>
       <c r="J604" t="n">
-        <v>20.78923303625641</v>
+        <v>28.7220597340595</v>
       </c>
       <c r="K604" t="b">
         <v>1</v>
@@ -33882,7 +33882,7 @@
     </row>
     <row r="605">
       <c r="A605" s="1" t="n">
-        <v>804</v>
+        <v>859</v>
       </c>
       <c r="B605" t="inlineStr">
         <is>
@@ -33896,28 +33896,28 @@
       </c>
       <c r="D605" t="inlineStr">
         <is>
-          <t>No Inmersivo</t>
+          <t>Realidad Virtual</t>
         </is>
       </c>
       <c r="E605" t="inlineStr">
         <is>
-          <t>VisibleTarget_1</t>
+          <t>HiddenTarget_3</t>
         </is>
       </c>
       <c r="F605" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G605" t="n">
-        <v>13603</v>
+        <v>14703</v>
       </c>
       <c r="H605" t="n">
-        <v>6029</v>
+        <v>7333</v>
       </c>
       <c r="I605" t="n">
-        <v>0.3731577848778431</v>
+        <v>0.401079048691332</v>
       </c>
       <c r="J605" t="n">
-        <v>23.25754285769809</v>
+        <v>20.28670417374448</v>
       </c>
       <c r="K605" t="b">
         <v>1</v>
@@ -33932,7 +33932,7 @@
     </row>
     <row r="606">
       <c r="A606" s="1" t="n">
-        <v>805</v>
+        <v>860</v>
       </c>
       <c r="B606" t="inlineStr">
         <is>
@@ -33946,28 +33946,28 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>No Inmersivo</t>
+          <t>Realidad Virtual</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>VisibleTarget_1</t>
+          <t>HiddenTarget_3</t>
         </is>
       </c>
       <c r="F606" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G606" t="n">
-        <v>13604</v>
+        <v>14704</v>
       </c>
       <c r="H606" t="n">
-        <v>5144</v>
+        <v>24000</v>
       </c>
       <c r="I606" t="n">
-        <v>0.3724409889391921</v>
+        <v>1.324292739673721</v>
       </c>
       <c r="J606" t="n">
-        <v>18.79469774671629</v>
+        <v>71.80083726592477</v>
       </c>
       <c r="K606" t="b">
         <v>1</v>
@@ -33982,7 +33982,7 @@
     </row>
     <row r="607">
       <c r="A607" s="1" t="n">
-        <v>806</v>
+        <v>861</v>
       </c>
       <c r="B607" t="inlineStr">
         <is>
@@ -33996,28 +33996,28 @@
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>No Inmersivo</t>
+          <t>Realidad Virtual</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>VisibleTarget_1</t>
+          <t>HiddenTarget_3</t>
         </is>
       </c>
       <c r="F607" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G607" t="n">
-        <v>13605</v>
+        <v>14705</v>
       </c>
       <c r="H607" t="n">
-        <v>5478</v>
+        <v>11111</v>
       </c>
       <c r="I607" t="n">
-        <v>0.3800642867633988</v>
+        <v>0.4629368070335316</v>
       </c>
       <c r="J607" t="n">
-        <v>20.30788058065022</v>
+        <v>43.71097249490506</v>
       </c>
       <c r="K607" t="b">
         <v>1</v>
@@ -34032,7 +34032,7 @@
     </row>
     <row r="608">
       <c r="A608" s="1" t="n">
-        <v>807</v>
+        <v>862</v>
       </c>
       <c r="B608" t="inlineStr">
         <is>
@@ -34046,28 +34046,28 @@
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>No Inmersivo</t>
+          <t>Realidad Virtual</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>HiddenTarget_1</t>
+          <t>HiddenTarget_3</t>
         </is>
       </c>
       <c r="F608" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="G608" t="n">
-        <v>13606</v>
+        <v>14706</v>
       </c>
       <c r="H608" t="n">
-        <v>2371</v>
+        <v>14111</v>
       </c>
       <c r="I608" t="n">
-        <v>0.1253837882557613</v>
+        <v>0.6344154589702774</v>
       </c>
       <c r="J608" t="n">
-        <v>3.948541961449031</v>
+        <v>28.40973898587524</v>
       </c>
       <c r="K608" t="b">
         <v>1</v>
@@ -34082,7 +34082,7 @@
     </row>
     <row r="609">
       <c r="A609" s="1" t="n">
-        <v>808</v>
+        <v>863</v>
       </c>
       <c r="B609" t="inlineStr">
         <is>
@@ -34096,28 +34096,28 @@
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>No Inmersivo</t>
+          <t>Realidad Virtual</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>HiddenTarget_1</t>
+          <t>VisibleTarget_2</t>
         </is>
       </c>
       <c r="F609" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G609" t="n">
-        <v>13607</v>
+        <v>14800</v>
       </c>
       <c r="H609" t="n">
-        <v>2589</v>
+        <v>4889</v>
       </c>
       <c r="I609" t="n">
-        <v>0.1360327857202584</v>
+        <v>0.2619202500403401</v>
       </c>
       <c r="J609" t="n">
-        <v>4.30597802328109</v>
+        <v>12.98726844489208</v>
       </c>
       <c r="K609" t="b">
         <v>1</v>
@@ -34132,7 +34132,7 @@
     </row>
     <row r="610">
       <c r="A610" s="1" t="n">
-        <v>809</v>
+        <v>864</v>
       </c>
       <c r="B610" t="inlineStr">
         <is>
@@ -34146,28 +34146,28 @@
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>No Inmersivo</t>
+          <t>Realidad Virtual</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>HiddenTarget_1</t>
+          <t>VisibleTarget_2</t>
         </is>
       </c>
       <c r="F610" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G610" t="n">
-        <v>13608</v>
+        <v>14801</v>
       </c>
       <c r="H610" t="n">
-        <v>2705</v>
+        <v>5333</v>
       </c>
       <c r="I610" t="n">
-        <v>0.1546446742900024</v>
+        <v>0.3971047895029887</v>
       </c>
       <c r="J610" t="n">
-        <v>4.467863018887154</v>
+        <v>19.51768562223432</v>
       </c>
       <c r="K610" t="b">
         <v>1</v>
@@ -34182,7 +34182,7 @@
     </row>
     <row r="611">
       <c r="A611" s="1" t="n">
-        <v>810</v>
+        <v>865</v>
       </c>
       <c r="B611" t="inlineStr">
         <is>
@@ -34196,28 +34196,28 @@
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>No Inmersivo</t>
+          <t>Realidad Virtual</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>HiddenTarget_1</t>
+          <t>VisibleTarget_2</t>
         </is>
       </c>
       <c r="F611" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G611" t="n">
-        <v>13609</v>
+        <v>14802</v>
       </c>
       <c r="H611" t="n">
-        <v>2705</v>
+        <v>5111</v>
       </c>
       <c r="I611" t="n">
-        <v>0.1363364336026605</v>
+        <v>0.3595036262595516</v>
       </c>
       <c r="J611" t="n">
-        <v>4.509044869983274</v>
+        <v>16.707519795089</v>
       </c>
       <c r="K611" t="b">
         <v>1</v>
@@ -34229,2506 +34229,6 @@
         </is>
       </c>
       <c r="N611" t="inlineStr"/>
-    </row>
-    <row r="612">
-      <c r="A612" s="1" t="n">
-        <v>811</v>
-      </c>
-      <c r="B612" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C612" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D612" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E612" t="inlineStr">
-        <is>
-          <t>HiddenTarget_1</t>
-        </is>
-      </c>
-      <c r="F612" t="n">
-        <v>5</v>
-      </c>
-      <c r="G612" t="n">
-        <v>13610</v>
-      </c>
-      <c r="H612" t="n">
-        <v>2705</v>
-      </c>
-      <c r="I612" t="n">
-        <v>0.1211914070378298</v>
-      </c>
-      <c r="J612" t="n">
-        <v>4.565922060317553</v>
-      </c>
-      <c r="K612" t="b">
-        <v>1</v>
-      </c>
-      <c r="L612" t="inlineStr"/>
-      <c r="M612" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N612" t="inlineStr"/>
-    </row>
-    <row r="613">
-      <c r="A613" s="1" t="n">
-        <v>812</v>
-      </c>
-      <c r="B613" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C613" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D613" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E613" t="inlineStr">
-        <is>
-          <t>HiddenTarget_1</t>
-        </is>
-      </c>
-      <c r="F613" t="n">
-        <v>6</v>
-      </c>
-      <c r="G613" t="n">
-        <v>13611</v>
-      </c>
-      <c r="H613" t="n">
-        <v>2705</v>
-      </c>
-      <c r="I613" t="n">
-        <v>0.16474819693812</v>
-      </c>
-      <c r="J613" t="n">
-        <v>4.460701867681649</v>
-      </c>
-      <c r="K613" t="b">
-        <v>1</v>
-      </c>
-      <c r="L613" t="inlineStr"/>
-      <c r="M613" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N613" t="inlineStr"/>
-    </row>
-    <row r="614">
-      <c r="A614" s="1" t="n">
-        <v>813</v>
-      </c>
-      <c r="B614" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C614" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D614" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E614" t="inlineStr">
-        <is>
-          <t>HiddenTarget_1</t>
-        </is>
-      </c>
-      <c r="F614" t="n">
-        <v>7</v>
-      </c>
-      <c r="G614" t="n">
-        <v>13612</v>
-      </c>
-      <c r="H614" t="n">
-        <v>2705</v>
-      </c>
-      <c r="I614" t="n">
-        <v>0.1308010748532407</v>
-      </c>
-      <c r="J614" t="n">
-        <v>4.542505037756644</v>
-      </c>
-      <c r="K614" t="b">
-        <v>1</v>
-      </c>
-      <c r="L614" t="inlineStr"/>
-      <c r="M614" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N614" t="inlineStr"/>
-    </row>
-    <row r="615">
-      <c r="A615" s="1" t="n">
-        <v>814</v>
-      </c>
-      <c r="B615" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C615" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D615" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E615" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F615" t="n">
-        <v>1</v>
-      </c>
-      <c r="G615" t="n">
-        <v>13700</v>
-      </c>
-      <c r="H615" t="n">
-        <v>53993</v>
-      </c>
-      <c r="I615" t="n">
-        <v>0.3992595979587623</v>
-      </c>
-      <c r="J615" t="n">
-        <v>232.4241539826936</v>
-      </c>
-      <c r="K615" t="b">
-        <v>1</v>
-      </c>
-      <c r="L615" t="inlineStr"/>
-      <c r="M615" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N615" t="inlineStr"/>
-    </row>
-    <row r="616">
-      <c r="A616" s="1" t="n">
-        <v>815</v>
-      </c>
-      <c r="B616" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C616" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D616" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E616" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F616" t="n">
-        <v>2</v>
-      </c>
-      <c r="G616" t="n">
-        <v>13701</v>
-      </c>
-      <c r="H616" t="n">
-        <v>18620</v>
-      </c>
-      <c r="I616" t="n">
-        <v>1.127382780389013</v>
-      </c>
-      <c r="J616" t="n">
-        <v>54.46390054159234</v>
-      </c>
-      <c r="K616" t="b">
-        <v>1</v>
-      </c>
-      <c r="L616" t="inlineStr"/>
-      <c r="M616" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N616" t="inlineStr"/>
-    </row>
-    <row r="617">
-      <c r="A617" s="1" t="n">
-        <v>816</v>
-      </c>
-      <c r="B617" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C617" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D617" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E617" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F617" t="n">
-        <v>3</v>
-      </c>
-      <c r="G617" t="n">
-        <v>13702</v>
-      </c>
-      <c r="H617" t="n">
-        <v>37810</v>
-      </c>
-      <c r="I617" t="n">
-        <v>1.960457013450423</v>
-      </c>
-      <c r="J617" t="n">
-        <v>171.4718204884496</v>
-      </c>
-      <c r="K617" t="b">
-        <v>1</v>
-      </c>
-      <c r="L617" t="inlineStr"/>
-      <c r="M617" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N617" t="inlineStr"/>
-    </row>
-    <row r="618">
-      <c r="A618" s="1" t="n">
-        <v>817</v>
-      </c>
-      <c r="B618" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C618" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D618" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E618" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F618" t="n">
-        <v>4</v>
-      </c>
-      <c r="G618" t="n">
-        <v>13703</v>
-      </c>
-      <c r="H618" t="n">
-        <v>15598</v>
-      </c>
-      <c r="I618" t="n">
-        <v>0.8093568416853569</v>
-      </c>
-      <c r="J618" t="n">
-        <v>58.58324044811614</v>
-      </c>
-      <c r="K618" t="b">
-        <v>1</v>
-      </c>
-      <c r="L618" t="inlineStr"/>
-      <c r="M618" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N618" t="inlineStr"/>
-    </row>
-    <row r="619">
-      <c r="A619" s="1" t="n">
-        <v>818</v>
-      </c>
-      <c r="B619" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C619" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D619" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E619" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F619" t="n">
-        <v>5</v>
-      </c>
-      <c r="G619" t="n">
-        <v>13704</v>
-      </c>
-      <c r="H619" t="n">
-        <v>44507</v>
-      </c>
-      <c r="I619" t="n">
-        <v>2.183323008674497</v>
-      </c>
-      <c r="J619" t="n">
-        <v>135.9640675207643</v>
-      </c>
-      <c r="K619" t="b">
-        <v>1</v>
-      </c>
-      <c r="L619" t="inlineStr"/>
-      <c r="M619" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N619" t="inlineStr"/>
-    </row>
-    <row r="620">
-      <c r="A620" s="1" t="n">
-        <v>819</v>
-      </c>
-      <c r="B620" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C620" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D620" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E620" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F620" t="n">
-        <v>6</v>
-      </c>
-      <c r="G620" t="n">
-        <v>13705</v>
-      </c>
-      <c r="H620" t="n">
-        <v>39714</v>
-      </c>
-      <c r="I620" t="n">
-        <v>2.585202232934755</v>
-      </c>
-      <c r="J620" t="n">
-        <v>123.4201676930434</v>
-      </c>
-      <c r="K620" t="b">
-        <v>1</v>
-      </c>
-      <c r="L620" t="inlineStr"/>
-      <c r="M620" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N620" t="inlineStr"/>
-    </row>
-    <row r="621">
-      <c r="A621" s="1" t="n">
-        <v>820</v>
-      </c>
-      <c r="B621" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C621" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D621" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E621" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F621" t="n">
-        <v>7</v>
-      </c>
-      <c r="G621" t="n">
-        <v>13706</v>
-      </c>
-      <c r="H621" t="n">
-        <v>28992</v>
-      </c>
-      <c r="I621" t="n">
-        <v>1.435803093387906</v>
-      </c>
-      <c r="J621" t="n">
-        <v>94.89562992840146</v>
-      </c>
-      <c r="K621" t="b">
-        <v>1</v>
-      </c>
-      <c r="L621" t="inlineStr"/>
-      <c r="M621" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N621" t="inlineStr"/>
-    </row>
-    <row r="622">
-      <c r="A622" s="1" t="n">
-        <v>821</v>
-      </c>
-      <c r="B622" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C622" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D622" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E622" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F622" t="n">
-        <v>1</v>
-      </c>
-      <c r="G622" t="n">
-        <v>13800</v>
-      </c>
-      <c r="H622" t="n">
-        <v>6146</v>
-      </c>
-      <c r="I622" t="n">
-        <v>0.2522900569802891</v>
-      </c>
-      <c r="J622" t="n">
-        <v>19.48793316913117</v>
-      </c>
-      <c r="K622" t="b">
-        <v>1</v>
-      </c>
-      <c r="L622" t="inlineStr"/>
-      <c r="M622" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N622" t="inlineStr"/>
-    </row>
-    <row r="623">
-      <c r="A623" s="1" t="n">
-        <v>822</v>
-      </c>
-      <c r="B623" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C623" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D623" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E623" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F623" t="n">
-        <v>2</v>
-      </c>
-      <c r="G623" t="n">
-        <v>13801</v>
-      </c>
-      <c r="H623" t="n">
-        <v>46527</v>
-      </c>
-      <c r="I623" t="n">
-        <v>2.115088940308388</v>
-      </c>
-      <c r="J623" t="n">
-        <v>100.1963255600654</v>
-      </c>
-      <c r="K623" t="b">
-        <v>1</v>
-      </c>
-      <c r="L623" t="inlineStr"/>
-      <c r="M623" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N623" t="inlineStr"/>
-    </row>
-    <row r="624">
-      <c r="A624" s="1" t="n">
-        <v>823</v>
-      </c>
-      <c r="B624" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C624" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D624" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E624" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F624" t="n">
-        <v>3</v>
-      </c>
-      <c r="G624" t="n">
-        <v>13802</v>
-      </c>
-      <c r="H624" t="n">
-        <v>7482</v>
-      </c>
-      <c r="I624" t="n">
-        <v>0.2711864624064343</v>
-      </c>
-      <c r="J624" t="n">
-        <v>20.49526826838048</v>
-      </c>
-      <c r="K624" t="b">
-        <v>1</v>
-      </c>
-      <c r="L624" t="inlineStr"/>
-      <c r="M624" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N624" t="inlineStr"/>
-    </row>
-    <row r="625">
-      <c r="A625" s="1" t="n">
-        <v>824</v>
-      </c>
-      <c r="B625" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C625" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D625" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E625" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F625" t="n">
-        <v>4</v>
-      </c>
-      <c r="G625" t="n">
-        <v>13803</v>
-      </c>
-      <c r="H625" t="n">
-        <v>22078</v>
-      </c>
-      <c r="I625" t="n">
-        <v>0.7320188762442132</v>
-      </c>
-      <c r="J625" t="n">
-        <v>41.0882005131011</v>
-      </c>
-      <c r="K625" t="b">
-        <v>1</v>
-      </c>
-      <c r="L625" t="inlineStr"/>
-      <c r="M625" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N625" t="inlineStr"/>
-    </row>
-    <row r="626">
-      <c r="A626" s="1" t="n">
-        <v>825</v>
-      </c>
-      <c r="B626" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C626" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D626" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E626" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F626" t="n">
-        <v>5</v>
-      </c>
-      <c r="G626" t="n">
-        <v>13804</v>
-      </c>
-      <c r="H626" t="n">
-        <v>32232</v>
-      </c>
-      <c r="I626" t="n">
-        <v>1.284016568336362</v>
-      </c>
-      <c r="J626" t="n">
-        <v>84.86419213019173</v>
-      </c>
-      <c r="K626" t="b">
-        <v>1</v>
-      </c>
-      <c r="L626" t="inlineStr"/>
-      <c r="M626" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N626" t="inlineStr"/>
-    </row>
-    <row r="627">
-      <c r="A627" s="1" t="n">
-        <v>826</v>
-      </c>
-      <c r="B627" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C627" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D627" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E627" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F627" t="n">
-        <v>6</v>
-      </c>
-      <c r="G627" t="n">
-        <v>13805</v>
-      </c>
-      <c r="H627" t="n">
-        <v>13260</v>
-      </c>
-      <c r="I627" t="n">
-        <v>0.2779392117830177</v>
-      </c>
-      <c r="J627" t="n">
-        <v>21.68074914555816</v>
-      </c>
-      <c r="K627" t="b">
-        <v>1</v>
-      </c>
-      <c r="L627" t="inlineStr"/>
-      <c r="M627" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N627" t="inlineStr"/>
-    </row>
-    <row r="628">
-      <c r="A628" s="1" t="n">
-        <v>827</v>
-      </c>
-      <c r="B628" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C628" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D628" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E628" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F628" t="n">
-        <v>7</v>
-      </c>
-      <c r="G628" t="n">
-        <v>13806</v>
-      </c>
-      <c r="H628" t="n">
-        <v>13928</v>
-      </c>
-      <c r="I628" t="n">
-        <v>0.5162751805958627</v>
-      </c>
-      <c r="J628" t="n">
-        <v>19.11953477244941</v>
-      </c>
-      <c r="K628" t="b">
-        <v>1</v>
-      </c>
-      <c r="L628" t="inlineStr"/>
-      <c r="M628" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N628" t="inlineStr"/>
-    </row>
-    <row r="629">
-      <c r="A629" s="1" t="n">
-        <v>828</v>
-      </c>
-      <c r="B629" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C629" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D629" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E629" t="inlineStr">
-        <is>
-          <t>VisibleTarget_2</t>
-        </is>
-      </c>
-      <c r="F629" t="n">
-        <v>1</v>
-      </c>
-      <c r="G629" t="n">
-        <v>13900</v>
-      </c>
-      <c r="H629" t="n">
-        <v>7264</v>
-      </c>
-      <c r="I629" t="n">
-        <v>0.2299865730725012</v>
-      </c>
-      <c r="J629" t="n">
-        <v>15.79957226704235</v>
-      </c>
-      <c r="K629" t="b">
-        <v>1</v>
-      </c>
-      <c r="L629" t="inlineStr"/>
-      <c r="M629" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N629" t="inlineStr"/>
-    </row>
-    <row r="630">
-      <c r="A630" s="1" t="n">
-        <v>829</v>
-      </c>
-      <c r="B630" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C630" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D630" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E630" t="inlineStr">
-        <is>
-          <t>VisibleTarget_2</t>
-        </is>
-      </c>
-      <c r="F630" t="n">
-        <v>2</v>
-      </c>
-      <c r="G630" t="n">
-        <v>13901</v>
-      </c>
-      <c r="H630" t="n">
-        <v>6262</v>
-      </c>
-      <c r="I630" t="n">
-        <v>0.1845696186837622</v>
-      </c>
-      <c r="J630" t="n">
-        <v>12.86367769426914</v>
-      </c>
-      <c r="K630" t="b">
-        <v>1</v>
-      </c>
-      <c r="L630" t="inlineStr"/>
-      <c r="M630" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N630" t="inlineStr"/>
-    </row>
-    <row r="631">
-      <c r="A631" s="1" t="n">
-        <v>830</v>
-      </c>
-      <c r="B631" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C631" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D631" t="inlineStr">
-        <is>
-          <t>No Inmersivo</t>
-        </is>
-      </c>
-      <c r="E631" t="inlineStr">
-        <is>
-          <t>VisibleTarget_2</t>
-        </is>
-      </c>
-      <c r="F631" t="n">
-        <v>3</v>
-      </c>
-      <c r="G631" t="n">
-        <v>13902</v>
-      </c>
-      <c r="H631" t="n">
-        <v>8266</v>
-      </c>
-      <c r="I631" t="n">
-        <v>0.4222754239941218</v>
-      </c>
-      <c r="J631" t="n">
-        <v>35.29043631129526</v>
-      </c>
-      <c r="K631" t="b">
-        <v>1</v>
-      </c>
-      <c r="L631" t="inlineStr"/>
-      <c r="M631" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N631" t="inlineStr"/>
-    </row>
-    <row r="632">
-      <c r="A632" s="1" t="n">
-        <v>831</v>
-      </c>
-      <c r="B632" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C632" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D632" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E632" t="inlineStr">
-        <is>
-          <t>FreeNav</t>
-        </is>
-      </c>
-      <c r="F632" t="n">
-        <v>1</v>
-      </c>
-      <c r="G632" t="n">
-        <v>14000</v>
-      </c>
-      <c r="H632" t="n">
-        <v>44989</v>
-      </c>
-      <c r="I632" t="n">
-        <v>1.91019802891864</v>
-      </c>
-      <c r="J632" t="n">
-        <v>145.7682148175048</v>
-      </c>
-      <c r="K632" t="b">
-        <v>0</v>
-      </c>
-      <c r="L632" t="inlineStr"/>
-      <c r="M632" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N632" t="inlineStr"/>
-    </row>
-    <row r="633">
-      <c r="A633" s="1" t="n">
-        <v>833</v>
-      </c>
-      <c r="B633" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C633" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D633" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E633" t="inlineStr">
-        <is>
-          <t>Training</t>
-        </is>
-      </c>
-      <c r="F633" t="n">
-        <v>1</v>
-      </c>
-      <c r="G633" t="n">
-        <v>14101</v>
-      </c>
-      <c r="H633" t="n">
-        <v>41767</v>
-      </c>
-      <c r="I633" t="n">
-        <v>1.554398961503478</v>
-      </c>
-      <c r="J633" t="n">
-        <v>104.5406898400202</v>
-      </c>
-      <c r="K633" t="b">
-        <v>0</v>
-      </c>
-      <c r="L633" t="inlineStr"/>
-      <c r="M633" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N633" t="inlineStr"/>
-    </row>
-    <row r="634">
-      <c r="A634" s="1" t="n">
-        <v>834</v>
-      </c>
-      <c r="B634" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C634" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D634" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E634" t="inlineStr">
-        <is>
-          <t>VisibleTarget_1</t>
-        </is>
-      </c>
-      <c r="F634" t="n">
-        <v>1</v>
-      </c>
-      <c r="G634" t="n">
-        <v>14102</v>
-      </c>
-      <c r="H634" t="n">
-        <v>19778</v>
-      </c>
-      <c r="I634" t="n">
-        <v>0.3923200023878101</v>
-      </c>
-      <c r="J634" t="n">
-        <v>84.78395767295562</v>
-      </c>
-      <c r="K634" t="b">
-        <v>1</v>
-      </c>
-      <c r="L634" t="inlineStr"/>
-      <c r="M634" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N634" t="inlineStr"/>
-    </row>
-    <row r="635">
-      <c r="A635" s="1" t="n">
-        <v>835</v>
-      </c>
-      <c r="B635" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C635" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D635" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E635" t="inlineStr">
-        <is>
-          <t>VisibleTarget_1</t>
-        </is>
-      </c>
-      <c r="F635" t="n">
-        <v>2</v>
-      </c>
-      <c r="G635" t="n">
-        <v>14103</v>
-      </c>
-      <c r="H635" t="n">
-        <v>8889</v>
-      </c>
-      <c r="I635" t="n">
-        <v>0.4145138088268273</v>
-      </c>
-      <c r="J635" t="n">
-        <v>36.06243067470569</v>
-      </c>
-      <c r="K635" t="b">
-        <v>1</v>
-      </c>
-      <c r="L635" t="inlineStr"/>
-      <c r="M635" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N635" t="inlineStr"/>
-    </row>
-    <row r="636">
-      <c r="A636" s="1" t="n">
-        <v>836</v>
-      </c>
-      <c r="B636" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C636" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D636" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E636" t="inlineStr">
-        <is>
-          <t>VisibleTarget_1</t>
-        </is>
-      </c>
-      <c r="F636" t="n">
-        <v>3</v>
-      </c>
-      <c r="G636" t="n">
-        <v>14104</v>
-      </c>
-      <c r="H636" t="n">
-        <v>7000</v>
-      </c>
-      <c r="I636" t="n">
-        <v>0.3847884471719615</v>
-      </c>
-      <c r="J636" t="n">
-        <v>27.56885770676792</v>
-      </c>
-      <c r="K636" t="b">
-        <v>1</v>
-      </c>
-      <c r="L636" t="inlineStr"/>
-      <c r="M636" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N636" t="inlineStr"/>
-    </row>
-    <row r="637">
-      <c r="A637" s="1" t="n">
-        <v>837</v>
-      </c>
-      <c r="B637" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C637" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D637" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E637" t="inlineStr">
-        <is>
-          <t>VisibleTarget_1</t>
-        </is>
-      </c>
-      <c r="F637" t="n">
-        <v>4</v>
-      </c>
-      <c r="G637" t="n">
-        <v>14105</v>
-      </c>
-      <c r="H637" t="n">
-        <v>5444</v>
-      </c>
-      <c r="I637" t="n">
-        <v>0.387402267629877</v>
-      </c>
-      <c r="J637" t="n">
-        <v>20.02928745187216</v>
-      </c>
-      <c r="K637" t="b">
-        <v>1</v>
-      </c>
-      <c r="L637" t="inlineStr"/>
-      <c r="M637" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N637" t="inlineStr"/>
-    </row>
-    <row r="638">
-      <c r="A638" s="1" t="n">
-        <v>838</v>
-      </c>
-      <c r="B638" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C638" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D638" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E638" t="inlineStr">
-        <is>
-          <t>HiddenTarget_1</t>
-        </is>
-      </c>
-      <c r="F638" t="n">
-        <v>1</v>
-      </c>
-      <c r="G638" t="n">
-        <v>14106</v>
-      </c>
-      <c r="H638" t="n">
-        <v>43211</v>
-      </c>
-      <c r="I638" t="n">
-        <v>3.298999584929402</v>
-      </c>
-      <c r="J638" t="n">
-        <v>163.770291454907</v>
-      </c>
-      <c r="K638" t="b">
-        <v>1</v>
-      </c>
-      <c r="L638" t="inlineStr"/>
-      <c r="M638" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N638" t="inlineStr"/>
-    </row>
-    <row r="639">
-      <c r="A639" s="1" t="n">
-        <v>839</v>
-      </c>
-      <c r="B639" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C639" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D639" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E639" t="inlineStr">
-        <is>
-          <t>HiddenTarget_1</t>
-        </is>
-      </c>
-      <c r="F639" t="n">
-        <v>2</v>
-      </c>
-      <c r="G639" t="n">
-        <v>14107</v>
-      </c>
-      <c r="H639" t="n">
-        <v>42767</v>
-      </c>
-      <c r="I639" t="n">
-        <v>2.698848654720605</v>
-      </c>
-      <c r="J639" t="n">
-        <v>166.9420511001117</v>
-      </c>
-      <c r="K639" t="b">
-        <v>1</v>
-      </c>
-      <c r="L639" t="inlineStr"/>
-      <c r="M639" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N639" t="inlineStr"/>
-    </row>
-    <row r="640">
-      <c r="A640" s="1" t="n">
-        <v>840</v>
-      </c>
-      <c r="B640" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C640" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D640" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E640" t="inlineStr">
-        <is>
-          <t>HiddenTarget_1</t>
-        </is>
-      </c>
-      <c r="F640" t="n">
-        <v>3</v>
-      </c>
-      <c r="G640" t="n">
-        <v>14108</v>
-      </c>
-      <c r="H640" t="n">
-        <v>9445</v>
-      </c>
-      <c r="I640" t="n">
-        <v>0.4438206810098095</v>
-      </c>
-      <c r="J640" t="n">
-        <v>37.41313637022479</v>
-      </c>
-      <c r="K640" t="b">
-        <v>1</v>
-      </c>
-      <c r="L640" t="inlineStr"/>
-      <c r="M640" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N640" t="inlineStr"/>
-    </row>
-    <row r="641">
-      <c r="A641" s="1" t="n">
-        <v>841</v>
-      </c>
-      <c r="B641" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C641" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D641" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E641" t="inlineStr">
-        <is>
-          <t>HiddenTarget_1</t>
-        </is>
-      </c>
-      <c r="F641" t="n">
-        <v>4</v>
-      </c>
-      <c r="G641" t="n">
-        <v>14109</v>
-      </c>
-      <c r="H641" t="n">
-        <v>8444</v>
-      </c>
-      <c r="I641" t="n">
-        <v>0.3952917812118527</v>
-      </c>
-      <c r="J641" t="n">
-        <v>34.4927555833008</v>
-      </c>
-      <c r="K641" t="b">
-        <v>1</v>
-      </c>
-      <c r="L641" t="inlineStr"/>
-      <c r="M641" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N641" t="inlineStr"/>
-    </row>
-    <row r="642">
-      <c r="A642" s="1" t="n">
-        <v>842</v>
-      </c>
-      <c r="B642" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C642" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D642" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E642" t="inlineStr">
-        <is>
-          <t>HiddenTarget_1</t>
-        </is>
-      </c>
-      <c r="F642" t="n">
-        <v>5</v>
-      </c>
-      <c r="G642" t="n">
-        <v>14110</v>
-      </c>
-      <c r="H642" t="n">
-        <v>9333</v>
-      </c>
-      <c r="I642" t="n">
-        <v>0.4163082731031905</v>
-      </c>
-      <c r="J642" t="n">
-        <v>38.19698970667186</v>
-      </c>
-      <c r="K642" t="b">
-        <v>1</v>
-      </c>
-      <c r="L642" t="inlineStr"/>
-      <c r="M642" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N642" t="inlineStr"/>
-    </row>
-    <row r="643">
-      <c r="A643" s="1" t="n">
-        <v>843</v>
-      </c>
-      <c r="B643" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C643" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D643" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E643" t="inlineStr">
-        <is>
-          <t>HiddenTarget_1</t>
-        </is>
-      </c>
-      <c r="F643" t="n">
-        <v>6</v>
-      </c>
-      <c r="G643" t="n">
-        <v>14111</v>
-      </c>
-      <c r="H643" t="n">
-        <v>18222</v>
-      </c>
-      <c r="I643" t="n">
-        <v>1.103842858271582</v>
-      </c>
-      <c r="J643" t="n">
-        <v>69.34387621523659</v>
-      </c>
-      <c r="K643" t="b">
-        <v>1</v>
-      </c>
-      <c r="L643" t="inlineStr"/>
-      <c r="M643" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N643" t="inlineStr"/>
-    </row>
-    <row r="644">
-      <c r="A644" s="1" t="n">
-        <v>844</v>
-      </c>
-      <c r="B644" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C644" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D644" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E644" t="inlineStr">
-        <is>
-          <t>HiddenTarget_1</t>
-        </is>
-      </c>
-      <c r="F644" t="n">
-        <v>7</v>
-      </c>
-      <c r="G644" t="n">
-        <v>14112</v>
-      </c>
-      <c r="H644" t="n">
-        <v>8889</v>
-      </c>
-      <c r="I644" t="n">
-        <v>0.423404872255096</v>
-      </c>
-      <c r="J644" t="n">
-        <v>36.0396710486854</v>
-      </c>
-      <c r="K644" t="b">
-        <v>1</v>
-      </c>
-      <c r="L644" t="inlineStr"/>
-      <c r="M644" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N644" t="inlineStr"/>
-    </row>
-    <row r="645">
-      <c r="A645" s="1" t="n">
-        <v>845</v>
-      </c>
-      <c r="B645" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C645" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D645" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E645" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F645" t="n">
-        <v>1</v>
-      </c>
-      <c r="G645" t="n">
-        <v>14200</v>
-      </c>
-      <c r="H645" t="n">
-        <v>38000</v>
-      </c>
-      <c r="I645" t="n">
-        <v>0.5178503578171607</v>
-      </c>
-      <c r="J645" t="n">
-        <v>157.7556536230171</v>
-      </c>
-      <c r="K645" t="b">
-        <v>1</v>
-      </c>
-      <c r="L645" t="inlineStr"/>
-      <c r="M645" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N645" t="inlineStr"/>
-    </row>
-    <row r="646">
-      <c r="A646" s="1" t="n">
-        <v>847</v>
-      </c>
-      <c r="B646" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C646" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D646" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E646" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F646" t="n">
-        <v>2</v>
-      </c>
-      <c r="G646" t="n">
-        <v>14301</v>
-      </c>
-      <c r="H646" t="n">
-        <v>43100</v>
-      </c>
-      <c r="I646" t="n">
-        <v>2.333556897237658</v>
-      </c>
-      <c r="J646" t="n">
-        <v>100.1814571431603</v>
-      </c>
-      <c r="K646" t="b">
-        <v>1</v>
-      </c>
-      <c r="L646" t="inlineStr"/>
-      <c r="M646" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N646" t="inlineStr"/>
-    </row>
-    <row r="647">
-      <c r="A647" s="1" t="n">
-        <v>848</v>
-      </c>
-      <c r="B647" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C647" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D647" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E647" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F647" t="n">
-        <v>3</v>
-      </c>
-      <c r="G647" t="n">
-        <v>14302</v>
-      </c>
-      <c r="H647" t="n">
-        <v>40222</v>
-      </c>
-      <c r="I647" t="n">
-        <v>2.160660635724889</v>
-      </c>
-      <c r="J647" t="n">
-        <v>133.015502445892</v>
-      </c>
-      <c r="K647" t="b">
-        <v>1</v>
-      </c>
-      <c r="L647" t="inlineStr"/>
-      <c r="M647" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N647" t="inlineStr"/>
-    </row>
-    <row r="648">
-      <c r="A648" s="1" t="n">
-        <v>849</v>
-      </c>
-      <c r="B648" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C648" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D648" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E648" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F648" t="n">
-        <v>4</v>
-      </c>
-      <c r="G648" t="n">
-        <v>14303</v>
-      </c>
-      <c r="H648" t="n">
-        <v>7333</v>
-      </c>
-      <c r="I648" t="n">
-        <v>0.4469583355938544</v>
-      </c>
-      <c r="J648" t="n">
-        <v>26.34914126073685</v>
-      </c>
-      <c r="K648" t="b">
-        <v>1</v>
-      </c>
-      <c r="L648" t="inlineStr"/>
-      <c r="M648" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N648" t="inlineStr"/>
-    </row>
-    <row r="649">
-      <c r="A649" s="1" t="n">
-        <v>850</v>
-      </c>
-      <c r="B649" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C649" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D649" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E649" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F649" t="n">
-        <v>5</v>
-      </c>
-      <c r="G649" t="n">
-        <v>14304</v>
-      </c>
-      <c r="H649" t="n">
-        <v>7333</v>
-      </c>
-      <c r="I649" t="n">
-        <v>0.484973865004185</v>
-      </c>
-      <c r="J649" t="n">
-        <v>29.40358449490406</v>
-      </c>
-      <c r="K649" t="b">
-        <v>1</v>
-      </c>
-      <c r="L649" t="inlineStr"/>
-      <c r="M649" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N649" t="inlineStr"/>
-    </row>
-    <row r="650">
-      <c r="A650" s="1" t="n">
-        <v>851</v>
-      </c>
-      <c r="B650" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C650" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D650" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E650" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F650" t="n">
-        <v>6</v>
-      </c>
-      <c r="G650" t="n">
-        <v>14305</v>
-      </c>
-      <c r="H650" t="n">
-        <v>7778</v>
-      </c>
-      <c r="I650" t="n">
-        <v>0.5263427719702352</v>
-      </c>
-      <c r="J650" t="n">
-        <v>31.20087342698108</v>
-      </c>
-      <c r="K650" t="b">
-        <v>1</v>
-      </c>
-      <c r="L650" t="inlineStr"/>
-      <c r="M650" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N650" t="inlineStr"/>
-    </row>
-    <row r="651">
-      <c r="A651" s="1" t="n">
-        <v>852</v>
-      </c>
-      <c r="B651" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C651" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D651" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E651" t="inlineStr">
-        <is>
-          <t>HiddenTarget_2</t>
-        </is>
-      </c>
-      <c r="F651" t="n">
-        <v>7</v>
-      </c>
-      <c r="G651" t="n">
-        <v>14306</v>
-      </c>
-      <c r="H651" t="n">
-        <v>6778</v>
-      </c>
-      <c r="I651" t="n">
-        <v>0.427126889479068</v>
-      </c>
-      <c r="J651" t="n">
-        <v>26.57205581068154</v>
-      </c>
-      <c r="K651" t="b">
-        <v>1</v>
-      </c>
-      <c r="L651" t="inlineStr"/>
-      <c r="M651" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N651" t="inlineStr"/>
-    </row>
-    <row r="652">
-      <c r="A652" s="1" t="n">
-        <v>853</v>
-      </c>
-      <c r="B652" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C652" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D652" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E652" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F652" t="n">
-        <v>1</v>
-      </c>
-      <c r="G652" t="n">
-        <v>14400</v>
-      </c>
-      <c r="H652" t="n">
-        <v>51879</v>
-      </c>
-      <c r="I652" t="n">
-        <v>3.293817469803835</v>
-      </c>
-      <c r="J652" t="n">
-        <v>157.6156978126522</v>
-      </c>
-      <c r="K652" t="b">
-        <v>1</v>
-      </c>
-      <c r="L652" t="inlineStr"/>
-      <c r="M652" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N652" t="inlineStr"/>
-    </row>
-    <row r="653">
-      <c r="A653" s="1" t="n">
-        <v>857</v>
-      </c>
-      <c r="B653" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C653" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D653" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E653" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F653" t="n">
-        <v>2</v>
-      </c>
-      <c r="G653" t="n">
-        <v>14701</v>
-      </c>
-      <c r="H653" t="n">
-        <v>19333</v>
-      </c>
-      <c r="I653" t="n">
-        <v>0.3737257643755911</v>
-      </c>
-      <c r="J653" t="n">
-        <v>71.3939519013264</v>
-      </c>
-      <c r="K653" t="b">
-        <v>1</v>
-      </c>
-      <c r="L653" t="inlineStr"/>
-      <c r="M653" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N653" t="inlineStr"/>
-    </row>
-    <row r="654">
-      <c r="A654" s="1" t="n">
-        <v>858</v>
-      </c>
-      <c r="B654" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C654" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D654" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E654" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F654" t="n">
-        <v>3</v>
-      </c>
-      <c r="G654" t="n">
-        <v>14702</v>
-      </c>
-      <c r="H654" t="n">
-        <v>7444</v>
-      </c>
-      <c r="I654" t="n">
-        <v>0.3636702419741078</v>
-      </c>
-      <c r="J654" t="n">
-        <v>28.7220597340595</v>
-      </c>
-      <c r="K654" t="b">
-        <v>1</v>
-      </c>
-      <c r="L654" t="inlineStr"/>
-      <c r="M654" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N654" t="inlineStr"/>
-    </row>
-    <row r="655">
-      <c r="A655" s="1" t="n">
-        <v>859</v>
-      </c>
-      <c r="B655" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C655" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D655" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E655" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F655" t="n">
-        <v>4</v>
-      </c>
-      <c r="G655" t="n">
-        <v>14703</v>
-      </c>
-      <c r="H655" t="n">
-        <v>7333</v>
-      </c>
-      <c r="I655" t="n">
-        <v>0.401079048691332</v>
-      </c>
-      <c r="J655" t="n">
-        <v>20.28670417374448</v>
-      </c>
-      <c r="K655" t="b">
-        <v>1</v>
-      </c>
-      <c r="L655" t="inlineStr"/>
-      <c r="M655" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N655" t="inlineStr"/>
-    </row>
-    <row r="656">
-      <c r="A656" s="1" t="n">
-        <v>860</v>
-      </c>
-      <c r="B656" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C656" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D656" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E656" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F656" t="n">
-        <v>5</v>
-      </c>
-      <c r="G656" t="n">
-        <v>14704</v>
-      </c>
-      <c r="H656" t="n">
-        <v>24000</v>
-      </c>
-      <c r="I656" t="n">
-        <v>1.324292739673721</v>
-      </c>
-      <c r="J656" t="n">
-        <v>71.80083726592477</v>
-      </c>
-      <c r="K656" t="b">
-        <v>1</v>
-      </c>
-      <c r="L656" t="inlineStr"/>
-      <c r="M656" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N656" t="inlineStr"/>
-    </row>
-    <row r="657">
-      <c r="A657" s="1" t="n">
-        <v>861</v>
-      </c>
-      <c r="B657" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C657" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D657" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E657" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F657" t="n">
-        <v>6</v>
-      </c>
-      <c r="G657" t="n">
-        <v>14705</v>
-      </c>
-      <c r="H657" t="n">
-        <v>11111</v>
-      </c>
-      <c r="I657" t="n">
-        <v>0.4629368070335316</v>
-      </c>
-      <c r="J657" t="n">
-        <v>43.71097249490506</v>
-      </c>
-      <c r="K657" t="b">
-        <v>1</v>
-      </c>
-      <c r="L657" t="inlineStr"/>
-      <c r="M657" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N657" t="inlineStr"/>
-    </row>
-    <row r="658">
-      <c r="A658" s="1" t="n">
-        <v>862</v>
-      </c>
-      <c r="B658" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C658" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D658" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E658" t="inlineStr">
-        <is>
-          <t>HiddenTarget_3</t>
-        </is>
-      </c>
-      <c r="F658" t="n">
-        <v>7</v>
-      </c>
-      <c r="G658" t="n">
-        <v>14706</v>
-      </c>
-      <c r="H658" t="n">
-        <v>14111</v>
-      </c>
-      <c r="I658" t="n">
-        <v>0.6344154589702774</v>
-      </c>
-      <c r="J658" t="n">
-        <v>28.40973898587524</v>
-      </c>
-      <c r="K658" t="b">
-        <v>1</v>
-      </c>
-      <c r="L658" t="inlineStr"/>
-      <c r="M658" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N658" t="inlineStr"/>
-    </row>
-    <row r="659">
-      <c r="A659" s="1" t="n">
-        <v>863</v>
-      </c>
-      <c r="B659" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C659" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D659" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E659" t="inlineStr">
-        <is>
-          <t>VisibleTarget_2</t>
-        </is>
-      </c>
-      <c r="F659" t="n">
-        <v>1</v>
-      </c>
-      <c r="G659" t="n">
-        <v>14800</v>
-      </c>
-      <c r="H659" t="n">
-        <v>4889</v>
-      </c>
-      <c r="I659" t="n">
-        <v>0.2619202500403401</v>
-      </c>
-      <c r="J659" t="n">
-        <v>12.98726844489208</v>
-      </c>
-      <c r="K659" t="b">
-        <v>1</v>
-      </c>
-      <c r="L659" t="inlineStr"/>
-      <c r="M659" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N659" t="inlineStr"/>
-    </row>
-    <row r="660">
-      <c r="A660" s="1" t="n">
-        <v>864</v>
-      </c>
-      <c r="B660" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C660" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D660" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E660" t="inlineStr">
-        <is>
-          <t>VisibleTarget_2</t>
-        </is>
-      </c>
-      <c r="F660" t="n">
-        <v>2</v>
-      </c>
-      <c r="G660" t="n">
-        <v>14801</v>
-      </c>
-      <c r="H660" t="n">
-        <v>5333</v>
-      </c>
-      <c r="I660" t="n">
-        <v>0.3971047895029887</v>
-      </c>
-      <c r="J660" t="n">
-        <v>19.51768562223432</v>
-      </c>
-      <c r="K660" t="b">
-        <v>1</v>
-      </c>
-      <c r="L660" t="inlineStr"/>
-      <c r="M660" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N660" t="inlineStr"/>
-    </row>
-    <row r="661">
-      <c r="A661" s="1" t="n">
-        <v>865</v>
-      </c>
-      <c r="B661" t="inlineStr">
-        <is>
-          <t>P14</t>
-        </is>
-      </c>
-      <c r="C661" t="inlineStr">
-        <is>
-          <t>Vestibular</t>
-        </is>
-      </c>
-      <c r="D661" t="inlineStr">
-        <is>
-          <t>Realidad Virtual</t>
-        </is>
-      </c>
-      <c r="E661" t="inlineStr">
-        <is>
-          <t>VisibleTarget_2</t>
-        </is>
-      </c>
-      <c r="F661" t="n">
-        <v>3</v>
-      </c>
-      <c r="G661" t="n">
-        <v>14802</v>
-      </c>
-      <c r="H661" t="n">
-        <v>5111</v>
-      </c>
-      <c r="I661" t="n">
-        <v>0.3595036262595516</v>
-      </c>
-      <c r="J661" t="n">
-        <v>16.707519795089</v>
-      </c>
-      <c r="K661" t="b">
-        <v>1</v>
-      </c>
-      <c r="L661" t="inlineStr"/>
-      <c r="M661" t="inlineStr">
-        <is>
-          <t>Femenino</t>
-        </is>
-      </c>
-      <c r="N661" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
